--- a/kw_3 - AG (1).xlsx
+++ b/kw_3 - AG (1).xlsx
@@ -179,13 +179,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -744,7 +745,7 @@
   <dimension ref="C2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,11 +774,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <f>BINOMDIST(J3,$G$3,$G$4,0)</f>
         <v>1.572864E-3</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
@@ -792,11 +793,11 @@
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="7">
         <f t="shared" ref="K4:K10" si="0">BINOMDIST(J4,$G$3,$G$4,0)</f>
         <v>1.0616832000000007E-2</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
@@ -811,11 +812,11 @@
       <c r="J5">
         <v>3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>4.2467328000000006E-2</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
@@ -830,11 +831,11 @@
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>0.11147673600000005</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
@@ -843,11 +844,11 @@
       <c r="J7">
         <v>5</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>0.20065812480000006</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
@@ -855,11 +856,11 @@
       <c r="J8">
         <v>6</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="7">
         <f t="shared" si="0"/>
         <v>0.25082265600000009</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
@@ -872,11 +873,11 @@
       <c r="J9">
         <v>7</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <f t="shared" si="0"/>
         <v>0.21499084800000007</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
@@ -885,38 +886,38 @@
       <c r="J10">
         <v>8</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="7">
         <f t="shared" si="0"/>
         <v>0.12093235200000005</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11">
+      <c r="G11" s="6">
         <f>BINOMDIST(G6,G3,G4,0)</f>
         <v>0.21499084800000007</v>
       </c>
       <c r="J11">
         <v>9</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="7">
         <f>BINOMDIST(J11,$G$3,$G$4,0)</f>
         <v>4.0310783999999981E-2</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>10</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="7">
         <f>BINOMDIST(J12,$G$3,$G$4,0)</f>
         <v>6.0466176E-3</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
@@ -924,14 +925,14 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="7">
         <f>BINOMDIST(J13,$G$3,$G$4,0)</f>
         <v>1.0485760000000014E-4</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K14" s="6"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K15" s="5">

--- a/kw_3 - AG (1).xlsx
+++ b/kw_3 - AG (1).xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="5" r:id="rId1"/>
     <sheet name="1.2" sheetId="6" r:id="rId2"/>
     <sheet name="1.3" sheetId="7" r:id="rId3"/>
+    <sheet name="Arkusz1" sheetId="8" r:id="rId4"/>
+    <sheet name="Arkusz2" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1.3'!$A$1:$I$11</definedName>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Załóżmy, że badamy, czy klient dokona zakupu produktu. Prawdopodobieństwo zakupu wynosi p=0.3. Oszacuj</t>
   </si>
@@ -103,16 +105,35 @@
   </si>
   <si>
     <t>p=</t>
+  </si>
+  <si>
+    <t>Wzrost</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>średnia</t>
+  </si>
+  <si>
+    <t>odchylenie</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Z=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +157,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +175,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -188,6 +228,11 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -204,6 +249,839 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$8:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1161866064"/>
+        <c:axId val="-1161865520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1161866064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1161865520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1161865520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1161866064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -323,6 +1201,102 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>153162</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="985" b="985"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="3800475"/>
+          <a:ext cx="5458587" cy="1552792"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="152400" dist="12000" dir="900000" sy="98000" kx="110000" ky="200000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="30000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="perspectiveRelaxed">
+            <a:rot lat="19800000" lon="1200000" rev="20820000"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d contourW="6350" prstMaterial="matte">
+          <a:bevelT w="101600" h="101600"/>
+          <a:contourClr>
+            <a:srgbClr val="969696"/>
+          </a:contourClr>
+        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -744,7 +1718,7 @@
   </sheetPr>
   <dimension ref="C2:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -946,13 +1920,370 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="B2" s="9">
+        <f>NORMSDIST(A2)</f>
+        <v>0.83397675393647042</v>
+      </c>
+      <c r="C2" s="7">
+        <f>1-B2</f>
+        <v>0.16602324606352958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="B3" s="9">
+        <f>NORMSDIST(A3)</f>
+        <v>0.95543453724145699</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:C4" si="0">1-B3</f>
+        <v>4.4565462758543006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>-0.03</v>
+      </c>
+      <c r="B4" s="9">
+        <f>NORMSDIST(A4)</f>
+        <v>0.48803352658588733</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.51196647341411272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>148</v>
+      </c>
+      <c r="C8">
+        <f>(B8-$B$26)/$B$27</f>
+        <v>-1.5289030360476241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:C24" si="1">(B9-$B$26)/$B$27</f>
+        <v>-1.4183015398229024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>162</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>-0.75469256247457217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>164</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>-0.64409106624985046</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>168</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>-0.42288807380040699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>170</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>-0.31228657757568529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>170</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>-0.31228657757568529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>174</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>-9.1083585126241873E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11">
+        <v>175</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>-3.5782837013881019E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>177</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>7.4818659210840702E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>179</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.18542015543556239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="12">
+        <v>180</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.24072090354792328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>181</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.2960216516602841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>183</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.40662314788500581</v>
+      </c>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>185</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.51722464410972757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>190</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.79372838467153184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>230</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>3.0057583091659659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8">
+        <f>AVERAGE(B8:B24)</f>
+        <v>175.64705882352942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8">
+        <f>_xlfn.STDEV.S(B8:B24)</f>
+        <v>18.082938009594113</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A8:B24">
+    <sortCondition ref="B8:B24"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3.1</v>
+      </c>
+      <c r="E5">
+        <f>(C5-$C$2)/$C$3</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="F5">
+        <f>NORMSDIST(E5)</f>
+        <v>0.93319279873114191</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1100,15 +2431,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56407E6-50BF-4E40-821C-62A7B9DFFB42}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41202DE3-DE19-4C61-A37D-A33A12E7BC7D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7d6a0c7e-d587-42c1-852b-28c970cac7f3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1132,17 +2474,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41202DE3-DE19-4C61-A37D-A33A12E7BC7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56407E6-50BF-4E40-821C-62A7B9DFFB42}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7d6a0c7e-d587-42c1-852b-28c970cac7f3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>